--- a/MBMC/SD Request format_MB1608.xlsx
+++ b/MBMC/SD Request format_MB1608.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netorg1056155-my.sharepoint.com/personal/s_sagar_cloudextel_com/Documents/Desktop/Unique files/AIR202499/LM_Fibmax DNs/Site-wise DN and other details/MU-MB1608_TBR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netorg1056155-my.sharepoint.com/personal/r_sashwat_cloudextel_com/Documents/TrenchExtractor/MBMC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="8_{92AB7634-07C5-4DE9-B3D1-E7D11ACEB71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C15A44C1-99A3-471A-8890-21C0E119849C}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="8_{92AB7634-07C5-4DE9-B3D1-E7D11ACEB71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB19D5F9-92F8-4E78-8D7D-4DE8DAF65679}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SD Detal" sheetId="6" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="140">
   <si>
     <t>Circle</t>
   </si>
@@ -477,6 +477,27 @@
   </si>
   <si>
     <t>MIRA BHAYANDAR MUNCIPAL CORPORATION</t>
+  </si>
+  <si>
+    <t>632607</t>
+  </si>
+  <si>
+    <t>DADDY</t>
+  </si>
+  <si>
+    <t>Mira Bhayandar</t>
+  </si>
+  <si>
+    <t>ONLINE-NEFT</t>
+  </si>
+  <si>
+    <t>30/04/2025</t>
+  </si>
+  <si>
+    <t>119040</t>
+  </si>
+  <si>
+    <t>2 Years</t>
   </si>
 </sst>
 </file>
@@ -489,7 +510,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$CHF-100C]_-;\-* #,##0.00\ [$CHF-100C]_-;_-* &quot;-&quot;??\ [$CHF-100C]_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -576,8 +597,17 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -596,8 +626,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7E1FA"/>
+        <bgColor rgb="FFB7E1FA"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -691,13 +733,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -757,6 +814,15 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1040,38 +1106,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:X3"/>
+  <dimension ref="A2:X6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" customWidth="1"/>
-    <col min="17" max="17" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.88671875" customWidth="1"/>
+    <col min="15" max="15" width="16.88671875" customWidth="1"/>
+    <col min="16" max="16" width="9.5546875" customWidth="1"/>
+    <col min="17" max="17" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="40.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" s="3" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" s="3" customFormat="1" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>99</v>
       </c>
@@ -1145,7 +1211,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="10" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" s="10" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>60</v>
       </c>
@@ -1213,6 +1279,112 @@
       </c>
       <c r="X3" s="21" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="P5" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q5" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="R5" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="S5" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T5" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q6" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="R6" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="S6" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="T6" s="24" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1230,20 +1402,20 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>105</v>
       </c>
@@ -1275,7 +1447,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>103</v>
       </c>
@@ -1321,18 +1493,18 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="84.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1361,7 +1533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1390,7 +1562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1419,7 +1591,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1442,7 +1614,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1459,7 +1631,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>48</v>
       </c>
@@ -1467,7 +1639,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>49</v>
       </c>
@@ -1475,7 +1647,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>50</v>
       </c>
@@ -1483,7 +1655,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>51</v>
       </c>
@@ -1491,7 +1663,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>52</v>
       </c>
@@ -1499,7 +1671,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>53</v>
       </c>
@@ -1507,7 +1679,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>54</v>
       </c>
@@ -1515,7 +1687,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>55</v>
       </c>
@@ -1523,7 +1695,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>56</v>
       </c>
@@ -1531,7 +1703,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>57</v>
       </c>
@@ -1539,7 +1711,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>58</v>
       </c>
@@ -1547,7 +1719,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>59</v>
       </c>
@@ -1555,7 +1727,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>60</v>
       </c>
@@ -1563,7 +1735,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>61</v>
       </c>
@@ -1571,7 +1743,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>62</v>
       </c>
@@ -1579,72 +1751,72 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>82</v>
       </c>
